--- a/output_template/LFS Data Sheet.xlsx
+++ b/output_template/LFS Data Sheet.xlsx
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t xml:space="preserve">Industry</t>
   </si>
@@ -198,16 +198,7 @@
     <t xml:space="preserve">Location of Work</t>
   </si>
   <si>
-    <t xml:space="preserve">% yoy employment growth (2020-2021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yoy change of employment (2020-2021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total employment (2021)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment by gender in 2021 (%)</t>
+    <t xml:space="preserve">Employment by gender (%)</t>
   </si>
   <si>
     <t xml:space="preserve">% of employment under 25 years of age</t>
@@ -311,36 +302,6 @@
     <t xml:space="preserve">Number</t>
   </si>
   <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">Low</t>
   </si>
   <si>
@@ -369,19 +330,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yyyy\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="\+#,###;\-#,###"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="0"/>
-    <numFmt numFmtId="171" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="#,##0"/>
-    <numFmt numFmtId="174" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="175" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="General"/>
+    <numFmt numFmtId="169" formatCode="\+#,###;\-#,###"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="0"/>
+    <numFmt numFmtId="172" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="174" formatCode="#,##0"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -863,7 +825,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -1525,11 +1487,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="149" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="7" xfId="149" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="8" xfId="149" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="10" xfId="149" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="6" borderId="8" xfId="149" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1549,27 +1515,27 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="19" borderId="12" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="12" fillId="19" borderId="12" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="19" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="12" fillId="19" borderId="13" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="19" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="14" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="19" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="15" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="19" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="3" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="19" borderId="16" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="16" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1585,11 +1551,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="19" borderId="14" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="12" fillId="19" borderId="14" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="12" fillId="19" borderId="16" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="12" fillId="19" borderId="16" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1621,7 +1587,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="17" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1641,7 +1607,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1657,35 +1623,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="17" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" xfId="149" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="149" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="174" fontId="17" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" xfId="149" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="149" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1693,7 +1659,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="8" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1721,31 +1687,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="19" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="13" fillId="19" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="19" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="13" fillId="19" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="19" borderId="20" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="13" fillId="19" borderId="20" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="19" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="13" fillId="19" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="19" borderId="20" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="13" fillId="19" borderId="20" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="19" borderId="0" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="13" fillId="19" borderId="0" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="13" fillId="19" borderId="20" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="13" fillId="19" borderId="20" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1753,7 +1719,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1761,7 +1727,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="19" fillId="0" borderId="0" xfId="186" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" xfId="186" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1769,31 +1735,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="20" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="20" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="20" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="20" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="0" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="20" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="20" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1801,27 +1767,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="22" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="22" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="23" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="23" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="22" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="22" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="23" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="23" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="2" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="2" xfId="199" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1829,14 +1795,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="173" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="18" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1845,7 +1811,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1853,28 +1819,24 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="19" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="12" fillId="19" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="21" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="21" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="21" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="21" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1885,55 +1847,55 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="20" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="12" fillId="20" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="20" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="12" fillId="20" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="12" fillId="20" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="176" fontId="12" fillId="20" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="19" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="19" borderId="20" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="20" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="19" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="18" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="20" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="20" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="22" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="22" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="19" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="19" fillId="0" borderId="2" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="21" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="21" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="19" fillId="0" borderId="23" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="19" fillId="0" borderId="23" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2198,22 +2160,23 @@
   <dimension ref="A1:AMJ108"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P21" activeCellId="0" sqref="P21"/>
+      <selection pane="topRight" activeCell="H5" activeCellId="1" sqref="A30:A33 H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="15.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="2" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="12.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="2" width="7.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="9.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="7.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="9.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="10.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.19"/>
@@ -2227,7 +2190,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1004" min="36" style="1" width="9.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1004" min="36" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1005" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -2321,83 +2284,86 @@
     </row>
     <row r="3" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="8" t="str">
+        <f aca="true">"% yoy employment growth ("&amp;  YEAR(TODAY())-2  &amp; "-" &amp;  YEAR(TODAY())-1 &amp; ")"</f>
+        <v>% yoy employment growth (2020-2021)</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f aca="true">"yoy change of employment ("&amp;  YEAR(TODAY())-2  &amp; "-" &amp;  YEAR(TODAY())-1 &amp; ")"</f>
+        <v>yoy change of employment (2020-2021)</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f aca="true">"Total employment " &amp;  YEAR(TODAY())-1</f>
+        <v>Total employment 2021</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P3" s="9"/>
       <c r="Q3" s="9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T3" s="9"/>
       <c r="U3" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="V3" s="10"/>
       <c r="W3" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X3" s="8"/>
       <c r="Y3" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="AD3" s="12" t="s">
+      <c r="AG3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AE3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AI3" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="AG3" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI3" s="13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2406,135 +2372,157 @@
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
-      <c r="H4" s="15" t="n">
+      <c r="H4" s="16" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="I4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
-      <c r="J4" s="16" t="n">
+      <c r="J4" s="17" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="K4" s="14" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
       <c r="L4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="M4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
       <c r="N4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="O4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
       <c r="P4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="Q4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
       <c r="R4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="S4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
       <c r="T4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="U4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
-      <c r="V4" s="17" t="n">
+      <c r="V4" s="18" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="W4" s="14" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
       <c r="X4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="Y4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
       <c r="Z4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
       <c r="AA4" s="15" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
         <v>2016</v>
       </c>
-      <c r="AB4" s="17" t="n">
+      <c r="AB4" s="18" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
         <v>2021</v>
       </c>
-      <c r="AC4" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH4" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI4" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" s="36" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="30"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="35"/>
+      <c r="AC4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI4" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" s="37" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="36"/>
       <c r="ALQ5" s="0"/>
       <c r="ALR5" s="0"/>
       <c r="ALS5" s="0"/>
@@ -2557,686 +2545,686 @@
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="40"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="38"/>
-      <c r="AI7" s="38"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="40"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+      <c r="AB7" s="41"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
-      <c r="AA8" s="40"/>
-      <c r="AB8" s="40"/>
-      <c r="AC8" s="38"/>
-      <c r="AD8" s="38"/>
-      <c r="AE8" s="38"/>
-      <c r="AF8" s="38"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="38"/>
-      <c r="AI8" s="38"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="39"/>
+      <c r="AF8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="39"/>
+      <c r="AI8" s="39"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="39"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-      <c r="AE9" s="38"/>
-      <c r="AF9" s="38"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="39"/>
+      <c r="AF9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="39"/>
+      <c r="AI9" s="39"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
-      <c r="AA10" s="40"/>
-      <c r="AB10" s="40"/>
-      <c r="AC10" s="38"/>
-      <c r="AD10" s="38"/>
-      <c r="AE10" s="38"/>
-      <c r="AF10" s="38"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="38"/>
-      <c r="AI10" s="38"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="40"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="39"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="38"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="40"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="39"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="39"/>
+      <c r="AF11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AH11" s="39"/>
+      <c r="AI11" s="39"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="39"/>
-      <c r="V12" s="39"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
-      <c r="AA12" s="40"/>
-      <c r="AB12" s="40"/>
-      <c r="AC12" s="38"/>
-      <c r="AD12" s="38"/>
-      <c r="AE12" s="38"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="39"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="39"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="39"/>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="39"/>
+      <c r="AF12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AH12" s="39"/>
+      <c r="AI12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
-      <c r="AA13" s="40"/>
-      <c r="AB13" s="40"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-      <c r="AE13" s="38"/>
-      <c r="AF13" s="38"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="38"/>
-      <c r="AI13" s="38"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="39"/>
+      <c r="T13" s="39"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="40"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="39"/>
+      <c r="AF13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AH13" s="39"/>
+      <c r="AI13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
-      <c r="AA14" s="40"/>
-      <c r="AB14" s="40"/>
-      <c r="AC14" s="38"/>
-      <c r="AD14" s="38"/>
-      <c r="AE14" s="38"/>
-      <c r="AF14" s="38"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="38"/>
-      <c r="AI14" s="38"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="39"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="39"/>
+      <c r="AD14" s="39"/>
+      <c r="AE14" s="39"/>
+      <c r="AF14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AH14" s="39"/>
+      <c r="AI14" s="39"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
-      <c r="AA15" s="40"/>
-      <c r="AB15" s="40"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="39"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="39"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="39"/>
+      <c r="AF15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="39"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="38"/>
-      <c r="AD16" s="38"/>
-      <c r="AE16" s="38"/>
-      <c r="AF16" s="38"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="38"/>
-      <c r="AI16" s="38"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="39"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="38"/>
-      <c r="AI17" s="38"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="40"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="39"/>
+      <c r="AD17" s="39"/>
+      <c r="AE17" s="39"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AH17" s="39"/>
+      <c r="AI17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="39"/>
-      <c r="V18" s="39"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="40"/>
-      <c r="AA18" s="40"/>
-      <c r="AB18" s="40"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+      <c r="P18" s="39"/>
+      <c r="Q18" s="39"/>
+      <c r="R18" s="39"/>
+      <c r="S18" s="39"/>
+      <c r="T18" s="39"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="40"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="38"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="39"/>
-      <c r="W19" s="40"/>
-      <c r="X19" s="40"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="40"/>
-      <c r="AA19" s="40"/>
-      <c r="AB19" s="40"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-      <c r="AE19" s="38"/>
-      <c r="AF19" s="38"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="38"/>
-      <c r="AI19" s="38"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="39"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="40"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="39"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="39"/>
+      <c r="AF19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AH19" s="39"/>
+      <c r="AI19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="39"/>
-      <c r="V20" s="39"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="40"/>
-      <c r="Z20" s="40"/>
-      <c r="AA20" s="40"/>
-      <c r="AB20" s="40"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="40"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="38"/>
-      <c r="R21" s="38"/>
-      <c r="S21" s="38"/>
-      <c r="T21" s="38"/>
-      <c r="U21" s="39"/>
-      <c r="V21" s="39"/>
-      <c r="W21" s="40"/>
-      <c r="X21" s="40"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="40"/>
-      <c r="AA21" s="40"/>
-      <c r="AB21" s="40"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-      <c r="AE21" s="38"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="40"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="39"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="39"/>
+      <c r="AF21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AH21" s="39"/>
+      <c r="AI21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="38"/>
-      <c r="S22" s="38"/>
-      <c r="T22" s="38"/>
-      <c r="U22" s="38"/>
-      <c r="V22" s="38"/>
-      <c r="W22" s="40"/>
-      <c r="X22" s="40"/>
-      <c r="Y22" s="40"/>
-      <c r="Z22" s="40"/>
-      <c r="AA22" s="40"/>
-      <c r="AB22" s="38"/>
-      <c r="AC22" s="38"/>
-      <c r="AD22" s="38"/>
-      <c r="AE22" s="38"/>
-      <c r="AF22" s="38"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="38"/>
-      <c r="AI22" s="38"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+      <c r="V22" s="39"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="39"/>
+      <c r="AC22" s="39"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AH22" s="39"/>
+      <c r="AI22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="40"/>
-      <c r="X23" s="40"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="40"/>
-      <c r="AA23" s="40"/>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="40"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="39"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="39"/>
+      <c r="AF23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AH23" s="39"/>
+      <c r="AI23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
       <c r="O24" s="0"/>
       <c r="P24" s="0"/>
       <c r="Q24" s="0"/>
@@ -3260,49 +3248,49 @@
       <c r="AI24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="AC25" s="45"/>
-      <c r="AD25" s="45"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="45"/>
-      <c r="AH25" s="45"/>
-      <c r="AI25" s="45"/>
+      <c r="A25" s="44"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="AC25" s="46"/>
+      <c r="AD25" s="46"/>
+      <c r="AE25" s="46"/>
+      <c r="AF25" s="46"/>
+      <c r="AG25" s="46"/>
+      <c r="AH25" s="46"/>
+      <c r="AI25" s="46"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="44"/>
-      <c r="L26" s="44"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="AC26" s="45"/>
-      <c r="AD26" s="46"/>
-      <c r="AE26" s="46"/>
-      <c r="AF26" s="46"/>
-      <c r="AG26" s="45"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="45"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="46"/>
+      <c r="AH26" s="46"/>
+      <c r="AI26" s="46"/>
     </row>
     <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="ALQ27" s="0"/>
@@ -3348,8 +3336,8 @@
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
-    <row r="29" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="47"/>
+    <row r="29" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="48"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3405,8 +3393,8 @@
       <c r="AMI29" s="0"/>
       <c r="AMJ29" s="0"/>
     </row>
-    <row r="30" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="47"/>
+    <row r="30" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="48"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3462,8 +3450,8 @@
       <c r="AMI30" s="0"/>
       <c r="AMJ30" s="0"/>
     </row>
-    <row r="31" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="47"/>
+    <row r="31" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="48"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -3519,8 +3507,8 @@
       <c r="AMI31" s="0"/>
       <c r="AMJ31" s="0"/>
     </row>
-    <row r="32" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="47"/>
+    <row r="32" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="48"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -3576,8 +3564,8 @@
       <c r="AMI32" s="0"/>
       <c r="AMJ32" s="0"/>
     </row>
-    <row r="33" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="47"/>
+    <row r="33" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="48"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3633,8 +3621,8 @@
       <c r="AMI33" s="0"/>
       <c r="AMJ33" s="0"/>
     </row>
-    <row r="34" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="47"/>
+    <row r="34" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="48"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3690,8 +3678,8 @@
       <c r="AMI34" s="0"/>
       <c r="AMJ34" s="0"/>
     </row>
-    <row r="35" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="47"/>
+    <row r="35" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="48"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -3747,8 +3735,8 @@
       <c r="AMI35" s="0"/>
       <c r="AMJ35" s="0"/>
     </row>
-    <row r="36" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="47"/>
+    <row r="36" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="48"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -3804,8 +3792,8 @@
       <c r="AMI36" s="0"/>
       <c r="AMJ36" s="0"/>
     </row>
-    <row r="37" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="47"/>
+    <row r="37" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="48"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3861,8 +3849,8 @@
       <c r="AMI37" s="0"/>
       <c r="AMJ37" s="0"/>
     </row>
-    <row r="38" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="47"/>
+    <row r="38" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="48"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3918,8 +3906,8 @@
       <c r="AMI38" s="0"/>
       <c r="AMJ38" s="0"/>
     </row>
-    <row r="39" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="47"/>
+    <row r="39" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="48"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3975,8 +3963,8 @@
       <c r="AMI39" s="0"/>
       <c r="AMJ39" s="0"/>
     </row>
-    <row r="40" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="47"/>
+    <row r="40" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="48"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -4032,8 +4020,8 @@
       <c r="AMI40" s="0"/>
       <c r="AMJ40" s="0"/>
     </row>
-    <row r="41" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="47"/>
+    <row r="41" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="48"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -4089,8 +4077,8 @@
       <c r="AMI41" s="0"/>
       <c r="AMJ41" s="0"/>
     </row>
-    <row r="42" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="47"/>
+    <row r="42" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="48"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -4146,8 +4134,8 @@
       <c r="AMI42" s="0"/>
       <c r="AMJ42" s="0"/>
     </row>
-    <row r="43" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="47"/>
+    <row r="43" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="48"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -4203,8 +4191,8 @@
       <c r="AMI43" s="0"/>
       <c r="AMJ43" s="0"/>
     </row>
-    <row r="44" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="47"/>
+    <row r="44" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="48"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -4260,8 +4248,8 @@
       <c r="AMI44" s="0"/>
       <c r="AMJ44" s="0"/>
     </row>
-    <row r="45" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="47"/>
+    <row r="45" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="48"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -4317,25 +4305,25 @@
       <c r="AMI45" s="0"/>
       <c r="AMJ45" s="0"/>
     </row>
-    <row r="46" s="48" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="47"/>
+    <row r="46" s="49" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="48"/>
       <c r="B46" s="1"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="51"/>
-      <c r="L46" s="52"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="52"/>
-      <c r="O46" s="54"/>
-      <c r="P46" s="54"/>
-      <c r="R46" s="54"/>
-      <c r="T46" s="51"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
+      <c r="J46" s="53"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="53"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="53"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="T46" s="52"/>
       <c r="ALQ46" s="0"/>
       <c r="ALR46" s="0"/>
       <c r="ALS46" s="0"/>
@@ -4358,614 +4346,614 @@
       <c r="AMJ46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
-      <c r="J47" s="44"/>
-      <c r="K47" s="44"/>
-      <c r="L47" s="44"/>
-      <c r="M47" s="44"/>
-      <c r="N47" s="44"/>
-      <c r="P47" s="45"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="45"/>
+      <c r="M47" s="45"/>
+      <c r="N47" s="45"/>
+      <c r="P47" s="46"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="57"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="56"/>
-      <c r="P48" s="56"/>
-      <c r="S48" s="56"/>
-      <c r="T48" s="56"/>
+      <c r="A48" s="58"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="57"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="57"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="56"/>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="56"/>
-      <c r="P49" s="56"/>
-      <c r="S49" s="56"/>
-      <c r="T49" s="56"/>
+      <c r="A49" s="58"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="57"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="57"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
+      <c r="A50" s="58"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="57"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="56"/>
-      <c r="K51" s="56"/>
-      <c r="L51" s="56"/>
-      <c r="M51" s="56"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="56"/>
-      <c r="P51" s="56"/>
-      <c r="S51" s="56"/>
-      <c r="T51" s="56"/>
+      <c r="A51" s="58"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="57"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="56"/>
-      <c r="L52" s="56"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="56"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="56"/>
+      <c r="A52" s="58"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="57"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="56"/>
-      <c r="K53" s="56"/>
-      <c r="L53" s="56"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="56"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="56"/>
+      <c r="A53" s="58"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="57"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
+      <c r="A54" s="58"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="57"/>
+      <c r="L54" s="57"/>
+      <c r="M54" s="57"/>
+      <c r="N54" s="57"/>
+      <c r="O54" s="57"/>
+      <c r="P54" s="57"/>
+      <c r="S54" s="57"/>
+      <c r="T54" s="57"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="57"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="56"/>
-      <c r="K55" s="56"/>
-      <c r="L55" s="56"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="56"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="56"/>
+      <c r="A55" s="58"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="57"/>
+      <c r="L55" s="57"/>
+      <c r="M55" s="57"/>
+      <c r="N55" s="57"/>
+      <c r="O55" s="57"/>
+      <c r="P55" s="57"/>
+      <c r="S55" s="57"/>
+      <c r="T55" s="57"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="57"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="56"/>
-      <c r="L56" s="56"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="56"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="56"/>
+      <c r="A56" s="58"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="57"/>
+      <c r="S56" s="57"/>
+      <c r="T56" s="57"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="57"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="56"/>
-      <c r="J57" s="56"/>
-      <c r="K57" s="56"/>
-      <c r="L57" s="56"/>
-      <c r="M57" s="56"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="56"/>
-      <c r="P57" s="56"/>
-      <c r="S57" s="56"/>
-      <c r="T57" s="56"/>
+      <c r="A57" s="58"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="57"/>
+      <c r="M57" s="57"/>
+      <c r="N57" s="57"/>
+      <c r="O57" s="57"/>
+      <c r="P57" s="57"/>
+      <c r="S57" s="57"/>
+      <c r="T57" s="57"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="57"/>
-      <c r="C58" s="56"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="56"/>
-      <c r="J58" s="56"/>
-      <c r="K58" s="56"/>
-      <c r="L58" s="56"/>
-      <c r="M58" s="56"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="56"/>
-      <c r="P58" s="56"/>
-      <c r="S58" s="56"/>
-      <c r="T58" s="56"/>
+      <c r="A58" s="58"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="57"/>
+      <c r="S58" s="57"/>
+      <c r="T58" s="57"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="57"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="56"/>
-      <c r="J59" s="56"/>
-      <c r="K59" s="56"/>
-      <c r="L59" s="56"/>
-      <c r="M59" s="56"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="56"/>
-      <c r="P59" s="56"/>
-      <c r="S59" s="56"/>
-      <c r="T59" s="56"/>
+      <c r="A59" s="58"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="57"/>
+      <c r="J59" s="57"/>
+      <c r="K59" s="57"/>
+      <c r="L59" s="57"/>
+      <c r="M59" s="57"/>
+      <c r="N59" s="57"/>
+      <c r="O59" s="57"/>
+      <c r="P59" s="57"/>
+      <c r="S59" s="57"/>
+      <c r="T59" s="57"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="57"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="56"/>
-      <c r="J60" s="56"/>
-      <c r="K60" s="56"/>
-      <c r="L60" s="56"/>
-      <c r="M60" s="56"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="56"/>
-      <c r="P60" s="56"/>
-      <c r="S60" s="56"/>
-      <c r="T60" s="56"/>
+      <c r="A60" s="58"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="57"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="56"/>
-      <c r="J61" s="56"/>
-      <c r="K61" s="56"/>
-      <c r="L61" s="56"/>
-      <c r="M61" s="56"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="56"/>
-      <c r="P61" s="56"/>
-      <c r="S61" s="56"/>
-      <c r="T61" s="56"/>
+      <c r="A61" s="58"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="57"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="57"/>
+      <c r="S61" s="57"/>
+      <c r="T61" s="57"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="57"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="56"/>
-      <c r="M62" s="56"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="56"/>
-      <c r="P62" s="56"/>
-      <c r="S62" s="56"/>
-      <c r="T62" s="56"/>
+      <c r="A62" s="58"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="S62" s="57"/>
+      <c r="T62" s="57"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="57"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
+      <c r="A63" s="58"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="57"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="57"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="56"/>
-      <c r="K64" s="56"/>
-      <c r="L64" s="56"/>
-      <c r="M64" s="56"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="56"/>
-      <c r="P64" s="56"/>
-      <c r="S64" s="56"/>
-      <c r="T64" s="56"/>
+      <c r="A64" s="58"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="57"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="56"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="56"/>
-      <c r="K65" s="56"/>
-      <c r="L65" s="56"/>
-      <c r="M65" s="56"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="56"/>
-      <c r="P65" s="56"/>
-      <c r="S65" s="56"/>
-      <c r="T65" s="56"/>
+      <c r="A65" s="58"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="57"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-      <c r="G86" s="44"/>
-      <c r="H86" s="44"/>
-      <c r="I86" s="44"/>
-      <c r="J86" s="44"/>
-      <c r="K86" s="44"/>
-      <c r="L86" s="44"/>
-      <c r="M86" s="44"/>
-      <c r="N86" s="44"/>
+      <c r="E86" s="45"/>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="45"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
-      <c r="J87" s="44"/>
-      <c r="K87" s="44"/>
-      <c r="L87" s="44"/>
-      <c r="M87" s="44"/>
-      <c r="N87" s="44"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
-      <c r="L90" s="58"/>
-      <c r="M90" s="58"/>
-      <c r="N90" s="58"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
+      <c r="L90" s="59"/>
+      <c r="M90" s="59"/>
+      <c r="N90" s="59"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="58"/>
-      <c r="I91" s="58"/>
-      <c r="J91" s="58"/>
-      <c r="K91" s="58"/>
-      <c r="L91" s="58"/>
-      <c r="M91" s="58"/>
-      <c r="N91" s="58"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="59"/>
+      <c r="I91" s="59"/>
+      <c r="J91" s="59"/>
+      <c r="K91" s="59"/>
+      <c r="L91" s="59"/>
+      <c r="M91" s="59"/>
+      <c r="N91" s="59"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="58"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
-      <c r="I92" s="58"/>
-      <c r="J92" s="58"/>
-      <c r="K92" s="58"/>
-      <c r="L92" s="58"/>
-      <c r="M92" s="58"/>
-      <c r="N92" s="58"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+      <c r="L92" s="59"/>
+      <c r="M92" s="59"/>
+      <c r="N92" s="59"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E93" s="58"/>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="58"/>
-      <c r="I93" s="58"/>
-      <c r="J93" s="58"/>
-      <c r="K93" s="58"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="58"/>
-      <c r="N93" s="58"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="59"/>
+      <c r="I93" s="59"/>
+      <c r="J93" s="59"/>
+      <c r="K93" s="59"/>
+      <c r="L93" s="59"/>
+      <c r="M93" s="59"/>
+      <c r="N93" s="59"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E94" s="58"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="58"/>
-      <c r="K94" s="58"/>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-      <c r="N94" s="58"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="59"/>
+      <c r="K94" s="59"/>
+      <c r="L94" s="59"/>
+      <c r="M94" s="59"/>
+      <c r="N94" s="59"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E95" s="58"/>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="58"/>
-      <c r="I95" s="58"/>
-      <c r="J95" s="58"/>
-      <c r="K95" s="58"/>
-      <c r="L95" s="58"/>
-      <c r="M95" s="58"/>
-      <c r="N95" s="58"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="59"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="59"/>
+      <c r="K95" s="59"/>
+      <c r="L95" s="59"/>
+      <c r="M95" s="59"/>
+      <c r="N95" s="59"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E96" s="58"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
-      <c r="I96" s="58"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="58"/>
-      <c r="L96" s="58"/>
-      <c r="M96" s="58"/>
-      <c r="N96" s="58"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="59"/>
+      <c r="K96" s="59"/>
+      <c r="L96" s="59"/>
+      <c r="M96" s="59"/>
+      <c r="N96" s="59"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E97" s="58"/>
-      <c r="F97" s="58"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="58"/>
-      <c r="I97" s="58"/>
-      <c r="J97" s="58"/>
-      <c r="K97" s="58"/>
-      <c r="L97" s="58"/>
-      <c r="M97" s="58"/>
-      <c r="N97" s="58"/>
+      <c r="E97" s="59"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="59"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="59"/>
+      <c r="K97" s="59"/>
+      <c r="L97" s="59"/>
+      <c r="M97" s="59"/>
+      <c r="N97" s="59"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E98" s="58"/>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
-      <c r="I98" s="58"/>
-      <c r="J98" s="58"/>
-      <c r="K98" s="58"/>
-      <c r="L98" s="58"/>
-      <c r="M98" s="58"/>
-      <c r="N98" s="58"/>
+      <c r="E98" s="59"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="59"/>
+      <c r="K98" s="59"/>
+      <c r="L98" s="59"/>
+      <c r="M98" s="59"/>
+      <c r="N98" s="59"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E99" s="58"/>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="58"/>
-      <c r="I99" s="58"/>
-      <c r="J99" s="58"/>
-      <c r="K99" s="58"/>
-      <c r="L99" s="58"/>
-      <c r="M99" s="58"/>
-      <c r="N99" s="58"/>
+      <c r="E99" s="59"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="59"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="59"/>
+      <c r="K99" s="59"/>
+      <c r="L99" s="59"/>
+      <c r="M99" s="59"/>
+      <c r="N99" s="59"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E100" s="58"/>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
-      <c r="I100" s="58"/>
-      <c r="J100" s="58"/>
-      <c r="K100" s="58"/>
-      <c r="L100" s="58"/>
-      <c r="M100" s="58"/>
-      <c r="N100" s="58"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="59"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="59"/>
+      <c r="K100" s="59"/>
+      <c r="L100" s="59"/>
+      <c r="M100" s="59"/>
+      <c r="N100" s="59"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E101" s="58"/>
-      <c r="F101" s="58"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="58"/>
-      <c r="I101" s="58"/>
-      <c r="J101" s="58"/>
-      <c r="K101" s="58"/>
-      <c r="L101" s="58"/>
-      <c r="M101" s="58"/>
-      <c r="N101" s="58"/>
+      <c r="E101" s="59"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="59"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="59"/>
+      <c r="K101" s="59"/>
+      <c r="L101" s="59"/>
+      <c r="M101" s="59"/>
+      <c r="N101" s="59"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
-      <c r="I102" s="58"/>
-      <c r="J102" s="58"/>
-      <c r="K102" s="58"/>
-      <c r="L102" s="58"/>
-      <c r="M102" s="58"/>
-      <c r="N102" s="58"/>
+      <c r="E102" s="59"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="59"/>
+      <c r="K102" s="59"/>
+      <c r="L102" s="59"/>
+      <c r="M102" s="59"/>
+      <c r="N102" s="59"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E103" s="58"/>
-      <c r="F103" s="58"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="58"/>
-      <c r="I103" s="58"/>
-      <c r="J103" s="58"/>
-      <c r="K103" s="58"/>
-      <c r="L103" s="58"/>
-      <c r="M103" s="58"/>
-      <c r="N103" s="58"/>
+      <c r="E103" s="59"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="59"/>
+      <c r="I103" s="59"/>
+      <c r="J103" s="59"/>
+      <c r="K103" s="59"/>
+      <c r="L103" s="59"/>
+      <c r="M103" s="59"/>
+      <c r="N103" s="59"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E104" s="58"/>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
-      <c r="I104" s="58"/>
-      <c r="J104" s="58"/>
-      <c r="K104" s="58"/>
-      <c r="L104" s="58"/>
-      <c r="M104" s="58"/>
-      <c r="N104" s="58"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+      <c r="L104" s="59"/>
+      <c r="M104" s="59"/>
+      <c r="N104" s="59"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E105" s="58"/>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="58"/>
-      <c r="I105" s="58"/>
-      <c r="J105" s="58"/>
-      <c r="K105" s="58"/>
-      <c r="L105" s="58"/>
-      <c r="M105" s="58"/>
-      <c r="N105" s="58"/>
+      <c r="E105" s="59"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="59"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="59"/>
+      <c r="K105" s="59"/>
+      <c r="L105" s="59"/>
+      <c r="M105" s="59"/>
+      <c r="N105" s="59"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E106" s="58"/>
-      <c r="F106" s="58"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="58"/>
-      <c r="I106" s="58"/>
-      <c r="J106" s="58"/>
-      <c r="K106" s="58"/>
-      <c r="L106" s="58"/>
-      <c r="M106" s="58"/>
-      <c r="N106" s="58"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="59"/>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="59"/>
+      <c r="N106" s="59"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="58"/>
-      <c r="L107" s="58"/>
-      <c r="M107" s="58"/>
-      <c r="N107" s="58"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
+      <c r="L107" s="59"/>
+      <c r="M107" s="59"/>
+      <c r="N107" s="59"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E108" s="58"/>
-      <c r="F108" s="58"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
-      <c r="I108" s="58"/>
-      <c r="J108" s="58"/>
-      <c r="K108" s="58"/>
-      <c r="L108" s="58"/>
-      <c r="M108" s="58"/>
-      <c r="N108" s="58"/>
+      <c r="E108" s="59"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="59"/>
+      <c r="K108" s="59"/>
+      <c r="L108" s="59"/>
+      <c r="M108" s="59"/>
+      <c r="N108" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -5009,896 +4997,907 @@
   </sheetPr>
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30:A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="24.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="59" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="59" width="26.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="9" style="59" width="15.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="59" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="59" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="59" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="59" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="59" width="12.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="59" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="59" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="59" width="10.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="59" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="59" width="7.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="59" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="59" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="59" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="59" width="5.1"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="38" style="59" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="60" width="24.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="60" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="60" width="26.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="9" style="60" width="15.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="60" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="60" width="18.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="60" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="60" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="60" width="12.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="60" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="60" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="60" width="10.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="60" width="16.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="60" width="7.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="60" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="60" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="60" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="60" width="5.1"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="38" style="60" width="8.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61"/>
+      <c r="B2" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61"/>
+      <c r="B3" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
-      <c r="R1" s="61"/>
-      <c r="S1" s="61"/>
-      <c r="T1" s="61"/>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="60"/>
-      <c r="B2" s="62" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="63" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="60"/>
-      <c r="B3" s="62" t="s">
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62" t="s">
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="63"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61"/>
+      <c r="B5" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62" t="s">
+      <c r="C5" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="60"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="62" t="s">
+      <c r="D5" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="62"/>
-      <c r="S4" s="62"/>
-      <c r="T4" s="62"/>
-      <c r="U4" s="62"/>
-      <c r="V4" s="62"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="60"/>
-      <c r="B5" s="62" t="s">
+      <c r="E5" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="F5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="G5" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="62" t="s">
+      <c r="H5" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="62" t="s">
+      <c r="I5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-11</f>
+        <v>2011</v>
+      </c>
+      <c r="J5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-10</f>
+        <v>2012</v>
+      </c>
+      <c r="K5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-9</f>
+        <v>2013</v>
+      </c>
+      <c r="L5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-8</f>
+        <v>2014</v>
+      </c>
+      <c r="M5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-7</f>
+        <v>2015</v>
+      </c>
+      <c r="N5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-6</f>
+        <v>2016</v>
+      </c>
+      <c r="O5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-5</f>
+        <v>2017</v>
+      </c>
+      <c r="P5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-4</f>
+        <v>2018</v>
+      </c>
+      <c r="Q5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-3</f>
+        <v>2019</v>
+      </c>
+      <c r="R5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-2</f>
+        <v>2020</v>
+      </c>
+      <c r="S5" s="63" t="n">
+        <f aca="true">YEAR(TODAY())-1</f>
+        <v>2021</v>
+      </c>
+      <c r="T5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="62" t="s">
+      <c r="U5" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="V5" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="62" t="s">
+    </row>
+    <row r="6" s="73" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="72"/>
+      <c r="X6" s="74"/>
+      <c r="AK6" s="75"/>
+      <c r="AL6" s="76"/>
+    </row>
+    <row r="7" s="73" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="84"/>
+      <c r="X7" s="74"/>
+      <c r="AK7" s="75"/>
+    </row>
+    <row r="8" s="73" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+      <c r="R8" s="83"/>
+      <c r="S8" s="83"/>
+      <c r="T8" s="83"/>
+      <c r="U8" s="83"/>
+      <c r="V8" s="84"/>
+      <c r="X8" s="74"/>
+      <c r="AK8" s="75"/>
+    </row>
+    <row r="9" s="73" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="77"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="84"/>
+      <c r="X9" s="74"/>
+      <c r="AK9" s="75"/>
+    </row>
+    <row r="10" s="73" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="77"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
+      <c r="U10" s="83"/>
+      <c r="V10" s="84"/>
+      <c r="X10" s="74"/>
+      <c r="AK10" s="75"/>
+    </row>
+    <row r="11" s="73" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="77"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="83"/>
+      <c r="R11" s="83"/>
+      <c r="S11" s="83"/>
+      <c r="T11" s="83"/>
+      <c r="U11" s="83"/>
+      <c r="V11" s="84"/>
+      <c r="X11" s="74"/>
+      <c r="AK11" s="75"/>
+    </row>
+    <row r="12" s="73" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+      <c r="P12" s="83"/>
+      <c r="Q12" s="83"/>
+      <c r="R12" s="83"/>
+      <c r="S12" s="83"/>
+      <c r="T12" s="83"/>
+      <c r="U12" s="83"/>
+      <c r="V12" s="84"/>
+      <c r="X12" s="74"/>
+      <c r="AK12" s="75"/>
+    </row>
+    <row r="13" s="73" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="91"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="91"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="91"/>
+      <c r="R13" s="91"/>
+      <c r="S13" s="91"/>
+      <c r="T13" s="91"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="91"/>
+      <c r="X13" s="74"/>
+      <c r="AK13" s="75"/>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="92"/>
+    </row>
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="44"/>
+      <c r="I15" s="93"/>
+      <c r="AI15" s="94"/>
+      <c r="AJ15" s="94"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="95" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="H16" s="95"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="95"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="95"/>
+      <c r="Q16" s="95"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="61"/>
+      <c r="B17" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="W17" s="94"/>
+      <c r="X17" s="94"/>
+      <c r="Y17" s="94"/>
+      <c r="Z17" s="94"/>
+      <c r="AA17" s="94"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="94"/>
+      <c r="AD17" s="94"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="94"/>
+      <c r="AH17" s="94"/>
+    </row>
+    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="61"/>
+      <c r="B18" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="96"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
+      <c r="S18" s="96"/>
+      <c r="W18" s="94"/>
+      <c r="X18" s="94"/>
+      <c r="Y18" s="94"/>
+      <c r="Z18" s="94"/>
+      <c r="AA18" s="94"/>
+      <c r="AB18" s="94"/>
+      <c r="AC18" s="94"/>
+      <c r="AD18" s="94"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="97"/>
+      <c r="AH18" s="94"/>
+    </row>
+    <row r="19" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="61"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="W19" s="94"/>
+      <c r="X19" s="94"/>
+      <c r="Y19" s="94"/>
+      <c r="Z19" s="94"/>
+      <c r="AA19" s="94"/>
+      <c r="AB19" s="94"/>
+      <c r="AC19" s="94"/>
+      <c r="AD19" s="94"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="97"/>
+      <c r="AH19" s="94"/>
+    </row>
+    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="65"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
+      <c r="Q20" s="99"/>
+      <c r="R20" s="99"/>
+      <c r="S20" s="99"/>
+      <c r="W20" s="94"/>
+      <c r="X20" s="94"/>
+      <c r="Y20" s="94"/>
+      <c r="Z20" s="94"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="94"/>
+      <c r="AC20" s="94"/>
+      <c r="AD20" s="94"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="94"/>
+      <c r="AH20" s="94"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="77"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="100"/>
+      <c r="R21" s="101"/>
+      <c r="S21" s="100"/>
+      <c r="W21" s="94"/>
+      <c r="X21" s="94"/>
+      <c r="Y21" s="94"/>
+      <c r="Z21" s="94"/>
+      <c r="AA21" s="94"/>
+      <c r="AB21" s="94"/>
+      <c r="AC21" s="94"/>
+      <c r="AD21" s="94"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="97"/>
+      <c r="AH21" s="94"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="77"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="100"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="101"/>
+      <c r="S22" s="100"/>
+      <c r="W22" s="94"/>
+      <c r="X22" s="94"/>
+      <c r="Y22" s="94"/>
+      <c r="Z22" s="94"/>
+      <c r="AA22" s="94"/>
+      <c r="AB22" s="94"/>
+      <c r="AC22" s="94"/>
+      <c r="AD22" s="94"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="97"/>
+      <c r="AH22" s="94"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="77"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="100"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="94"/>
+      <c r="Y23" s="94"/>
+      <c r="Z23" s="94"/>
+      <c r="AA23" s="94"/>
+      <c r="AB23" s="94"/>
+      <c r="AC23" s="94"/>
+      <c r="AD23" s="94"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="97"/>
+      <c r="AH23" s="94"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="77"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="100"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="100"/>
+      <c r="W24" s="94"/>
+      <c r="X24" s="94"/>
+      <c r="Y24" s="94"/>
+      <c r="Z24" s="94"/>
+      <c r="AA24" s="94"/>
+      <c r="AB24" s="94"/>
+      <c r="AC24" s="94"/>
+      <c r="AD24" s="94"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="94"/>
+      <c r="AH24" s="94"/>
+      <c r="AI24" s="94"/>
+      <c r="AJ24" s="94"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="77"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="100"/>
+      <c r="R25" s="101"/>
+      <c r="S25" s="100"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="77"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="100"/>
+      <c r="R26" s="100"/>
+      <c r="S26" s="100"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="85"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="102"/>
+      <c r="Q27" s="102"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="102"/>
+    </row>
+    <row r="28" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="92"/>
+    </row>
+    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="44"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="H30" s="95"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="95"/>
+      <c r="Q30" s="95"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="U30" s="95"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="61"/>
+      <c r="B31" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="62" t="s">
+      <c r="U31" s="63"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="61"/>
+      <c r="B32" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q5" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="R5" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="S5" s="62" t="n">
-        <v>2021</v>
-      </c>
-      <c r="T5" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="U5" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="V5" s="62" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" s="72" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="71"/>
-      <c r="X6" s="73"/>
-      <c r="AK6" s="74"/>
-      <c r="AL6" s="75"/>
-    </row>
-    <row r="7" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="83"/>
-      <c r="X7" s="73"/>
-      <c r="AK7" s="74"/>
-    </row>
-    <row r="8" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="83"/>
-      <c r="X8" s="73"/>
-      <c r="AK8" s="74"/>
-    </row>
-    <row r="9" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="83"/>
-      <c r="X9" s="73"/>
-      <c r="AK9" s="74"/>
-    </row>
-    <row r="10" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="83"/>
-      <c r="X10" s="73"/>
-      <c r="AK10" s="74"/>
-    </row>
-    <row r="11" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="83"/>
-      <c r="X11" s="73"/>
-      <c r="AK11" s="74"/>
-    </row>
-    <row r="12" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="83"/>
-      <c r="X12" s="73"/>
-      <c r="AK12" s="74"/>
-    </row>
-    <row r="13" s="72" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="84"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="X13" s="73"/>
-      <c r="AK13" s="74"/>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="91"/>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43"/>
-      <c r="I15" s="92"/>
-      <c r="AI15" s="93"/>
-      <c r="AJ15" s="93"/>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="94"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="94"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="94"/>
-      <c r="S16" s="94"/>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="60"/>
-      <c r="B17" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="62"/>
-      <c r="W17" s="93"/>
-      <c r="X17" s="93"/>
-      <c r="Y17" s="93"/>
-      <c r="Z17" s="93"/>
-      <c r="AA17" s="93"/>
-      <c r="AB17" s="93"/>
-      <c r="AC17" s="93"/>
-      <c r="AD17" s="93"/>
-      <c r="AE17" s="93"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="93"/>
-      <c r="AH17" s="93"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="60"/>
-      <c r="B18" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="95"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="W18" s="93"/>
-      <c r="X18" s="93"/>
-      <c r="Y18" s="93"/>
-      <c r="Z18" s="93"/>
-      <c r="AA18" s="93"/>
-      <c r="AB18" s="93"/>
-      <c r="AC18" s="93"/>
-      <c r="AD18" s="93"/>
-      <c r="AE18" s="93"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="96"/>
-      <c r="AH18" s="93"/>
-    </row>
-    <row r="19" customFormat="false" ht="73.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="60"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="96"/>
-      <c r="AH19" s="93"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="64"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
-      <c r="P20" s="98"/>
-      <c r="Q20" s="98"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="W20" s="93"/>
-      <c r="X20" s="93"/>
-      <c r="Y20" s="93"/>
-      <c r="Z20" s="93"/>
-      <c r="AA20" s="93"/>
-      <c r="AB20" s="93"/>
-      <c r="AC20" s="93"/>
-      <c r="AD20" s="93"/>
-      <c r="AE20" s="93"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="93"/>
-      <c r="AH20" s="93"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="76"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="99"/>
-      <c r="P21" s="99"/>
-      <c r="Q21" s="99"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="99"/>
-      <c r="W21" s="93"/>
-      <c r="X21" s="93"/>
-      <c r="Y21" s="93"/>
-      <c r="Z21" s="93"/>
-      <c r="AA21" s="93"/>
-      <c r="AB21" s="93"/>
-      <c r="AC21" s="93"/>
-      <c r="AD21" s="93"/>
-      <c r="AE21" s="93"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="96"/>
-      <c r="AH21" s="93"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="76"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="99"/>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99"/>
-      <c r="R22" s="100"/>
-      <c r="S22" s="99"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="93"/>
-      <c r="AF22" s="93"/>
-      <c r="AG22" s="96"/>
-      <c r="AH22" s="93"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="76"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="99"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="99"/>
-      <c r="W23" s="93"/>
-      <c r="X23" s="93"/>
-      <c r="Y23" s="93"/>
-      <c r="Z23" s="93"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="93"/>
-      <c r="AC23" s="93"/>
-      <c r="AD23" s="93"/>
-      <c r="AE23" s="93"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="96"/>
-      <c r="AH23" s="93"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="76"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="99"/>
-      <c r="N24" s="99"/>
-      <c r="O24" s="99"/>
-      <c r="P24" s="99"/>
-      <c r="Q24" s="99"/>
-      <c r="R24" s="100"/>
-      <c r="S24" s="99"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="93"/>
-      <c r="Y24" s="93"/>
-      <c r="Z24" s="93"/>
-      <c r="AA24" s="93"/>
-      <c r="AB24" s="93"/>
-      <c r="AC24" s="93"/>
-      <c r="AD24" s="93"/>
-      <c r="AE24" s="93"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="93"/>
-      <c r="AH24" s="93"/>
-      <c r="AI24" s="93"/>
-      <c r="AJ24" s="93"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="76"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
-      <c r="O25" s="99"/>
-      <c r="P25" s="99"/>
-      <c r="Q25" s="99"/>
-      <c r="R25" s="100"/>
-      <c r="S25" s="99"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="76"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="99"/>
-      <c r="P26" s="99"/>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99"/>
-      <c r="S26" s="99"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="84"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="101"/>
-      <c r="O27" s="101"/>
-      <c r="P27" s="101"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="102"/>
-      <c r="S27" s="101"/>
-    </row>
-    <row r="28" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="91"/>
-    </row>
-    <row r="29" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="43"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="94"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="94"/>
-      <c r="S30" s="94"/>
-      <c r="T30" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="U30" s="94"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="103"/>
-      <c r="B31" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="U31" s="62"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="103"/>
-      <c r="B32" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
+      <c r="S32" s="96"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
     </row>
     <row r="33" customFormat="false" ht="90.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="103"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
       <c r="D33" s="104"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="63"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
+      <c r="L33" s="98"/>
+      <c r="M33" s="98"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="64"/>
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="105"/>
@@ -5924,171 +5923,171 @@
       <c r="U34" s="110"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="76"/>
+      <c r="A35" s="77"/>
       <c r="B35" s="111"/>
       <c r="C35" s="112"/>
       <c r="D35" s="112"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="99"/>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="99"/>
-      <c r="P35" s="99"/>
-      <c r="Q35" s="99"/>
-      <c r="R35" s="100"/>
-      <c r="S35" s="99"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
+      <c r="P35" s="100"/>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="101"/>
+      <c r="S35" s="100"/>
       <c r="T35" s="113"/>
       <c r="U35" s="114"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="76"/>
+      <c r="A36" s="77"/>
       <c r="B36" s="111"/>
       <c r="C36" s="112"/>
       <c r="D36" s="112"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="99"/>
-      <c r="N36" s="99"/>
-      <c r="O36" s="99"/>
-      <c r="P36" s="99"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="100"/>
-      <c r="S36" s="99"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="100"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="101"/>
+      <c r="S36" s="100"/>
       <c r="T36" s="113"/>
       <c r="U36" s="114"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="76"/>
+      <c r="A37" s="77"/>
       <c r="B37" s="111"/>
       <c r="C37" s="112"/>
       <c r="D37" s="112"/>
-      <c r="E37" s="99"/>
-      <c r="F37" s="99"/>
-      <c r="G37" s="99"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="99"/>
-      <c r="J37" s="99"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="99"/>
-      <c r="M37" s="99"/>
-      <c r="N37" s="99"/>
-      <c r="O37" s="99"/>
-      <c r="P37" s="99"/>
-      <c r="Q37" s="99"/>
-      <c r="R37" s="99"/>
-      <c r="S37" s="99"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+      <c r="S37" s="100"/>
       <c r="T37" s="113"/>
       <c r="U37" s="114"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="76"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="111"/>
       <c r="C38" s="112"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99"/>
-      <c r="N38" s="99"/>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99"/>
-      <c r="Q38" s="99"/>
-      <c r="R38" s="100"/>
-      <c r="S38" s="99"/>
+      <c r="D38" s="101"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="101"/>
+      <c r="S38" s="100"/>
       <c r="T38" s="113"/>
       <c r="U38" s="114"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="76"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="111"/>
       <c r="C39" s="112"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="99"/>
-      <c r="M39" s="99"/>
-      <c r="N39" s="99"/>
-      <c r="O39" s="99"/>
-      <c r="P39" s="99"/>
-      <c r="Q39" s="99"/>
-      <c r="R39" s="100"/>
-      <c r="S39" s="99"/>
+      <c r="D39" s="101"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="101"/>
+      <c r="S39" s="100"/>
       <c r="T39" s="113"/>
       <c r="U39" s="114"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="76"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="111"/>
       <c r="C40" s="112"/>
       <c r="D40" s="112"/>
-      <c r="E40" s="99"/>
-      <c r="F40" s="99"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="99"/>
-      <c r="I40" s="99"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="99"/>
-      <c r="N40" s="99"/>
-      <c r="O40" s="99"/>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="99"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
       <c r="T40" s="113"/>
       <c r="U40" s="114"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="84"/>
+      <c r="A41" s="85"/>
       <c r="B41" s="115"/>
       <c r="C41" s="116"/>
       <c r="D41" s="116"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="101"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="102"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="102"/>
+      <c r="N41" s="102"/>
+      <c r="O41" s="102"/>
+      <c r="P41" s="102"/>
+      <c r="Q41" s="102"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="102"/>
       <c r="T41" s="117"/>
       <c r="U41" s="118"/>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="91"/>
+      <c r="A42" s="92"/>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="43"/>
+      <c r="A43" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/output_template/LFS Data Sheet.xlsx
+++ b/output_template/LFS Data Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Industry Profiles" sheetId="1" state="visible" r:id="rId2"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t xml:space="preserve">Industry</t>
   </si>
@@ -278,9 +278,6 @@
     <t xml:space="preserve">Unemployment rate</t>
   </si>
   <si>
-    <t xml:space="preserve">10-year unemployment rate (2011-2021)</t>
-  </si>
-  <si>
     <t xml:space="preserve">0-14</t>
   </si>
   <si>
@@ -318,9 +315,6 @@
   </si>
   <si>
     <t xml:space="preserve">Goods and Services sectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of employment in Goods and Service sectors (2021)</t>
   </si>
   <si>
     <t xml:space="preserve">Share of B.C. employment (%) /Regional Share of Industry Employment (%)</t>
@@ -2159,10 +2153,10 @@
   </sheetPr>
   <dimension ref="A1:AMJ108"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H5" activeCellId="1" sqref="A30:A33 H5"/>
+      <selection pane="topRight" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2286,15 +2280,15 @@
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="str">
         <f aca="true">"% yoy employment growth ("&amp;  YEAR(TODAY())-2  &amp; "-" &amp;  YEAR(TODAY())-1 &amp; ")"</f>
-        <v>% yoy employment growth (2020-2021)</v>
+        <v>% yoy employment growth (2021-2022)</v>
       </c>
       <c r="C3" s="9" t="str">
         <f aca="true">"yoy change of employment ("&amp;  YEAR(TODAY())-2  &amp; "-" &amp;  YEAR(TODAY())-1 &amp; ")"</f>
-        <v>yoy change of employment (2020-2021)</v>
+        <v>yoy change of employment (2021-2022)</v>
       </c>
       <c r="D3" s="10" t="str">
         <f aca="true">"Total employment " &amp;  YEAR(TODAY())-1</f>
-        <v>Total employment 2021</v>
+        <v>Total employment 2022</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>7</v>
@@ -2379,91 +2373,91 @@
       </c>
       <c r="G4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="H4" s="16" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="J4" s="17" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="K4" s="14" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="M4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="N4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="O4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="P4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Q4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="R4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="S4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="T4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="U4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="V4" s="18" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="W4" s="14" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="X4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="Y4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="Z4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="AA4" s="15" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="AB4" s="18" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="AC4" s="19" t="s">
         <v>26</v>
@@ -4997,8 +4991,8 @@
   </sheetPr>
   <dimension ref="A1:AL43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30:A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T33" activeCellId="0" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5119,8 +5113,9 @@
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
       <c r="H4" s="63"/>
-      <c r="I4" s="63" t="s">
-        <v>33</v>
+      <c r="I4" s="63" t="str">
+        <f aca="true">"10-year unemployment rate  ("&amp;  YEAR(TODAY())-11  &amp; "-" &amp;  YEAR(TODAY())-1 &amp; ")"</f>
+        <v>10-year unemployment rate  (2012-2022)</v>
       </c>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
@@ -5136,81 +5131,81 @@
       <c r="U4" s="63"/>
       <c r="V4" s="63"/>
     </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="61"/>
       <c r="B5" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="63" t="s">
+      <c r="D5" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="E5" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="F5" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="G5" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="63" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>40</v>
       </c>
       <c r="I5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-11</f>
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="J5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-10</f>
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="K5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-9</f>
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="L5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-8</f>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="M5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-7</f>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="N5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-6</f>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="O5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-5</f>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="P5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-4</f>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="Q5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-3</f>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="R5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-2</f>
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="S5" s="63" t="n">
         <f aca="true">YEAR(TODAY())-1</f>
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="T5" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="U5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="U5" s="63" t="s">
+      <c r="V5" s="63" t="s">
         <v>42</v>
-      </c>
-      <c r="V5" s="63" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" s="73" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5436,7 +5431,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="95"/>
       <c r="D16" s="95"/>
@@ -5494,7 +5489,7 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="61"/>
       <c r="B18" s="96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="96"/>
       <c r="D18" s="96"/>
@@ -5800,7 +5795,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="95"/>
       <c r="D30" s="95"/>
@@ -5820,7 +5815,7 @@
       <c r="R30" s="95"/>
       <c r="S30" s="95"/>
       <c r="T30" s="95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U30" s="95"/>
     </row>
@@ -5846,15 +5841,16 @@
       <c r="Q31" s="63"/>
       <c r="R31" s="63"/>
       <c r="S31" s="63"/>
-      <c r="T31" s="63" t="s">
-        <v>47</v>
+      <c r="T31" s="63" t="str">
+        <f aca="true">"Share of employment in Goods and Service sectors ("&amp;  YEAR(TODAY())-1 &amp; ")"</f>
+        <v>Share of employment in Goods and Service sectors (2022)</v>
       </c>
       <c r="U31" s="63"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="61"/>
       <c r="B32" s="96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C32" s="96"/>
       <c r="D32" s="96"/>
